--- a/Part_of_genotypes_in_exons.xlsx
+++ b/Part_of_genotypes_in_exons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirja\Documents\University\ResearchProject\Data\24.05.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE8784D-1E69-443A-982B-AD3F9C300C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9003F059-D3D4-46E9-8A80-08FC2673D778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0317BE90-63B3-4A6F-99C2-5B7CEDC6628B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{0317BE90-63B3-4A6F-99C2-5B7CEDC6628B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -381,12 +381,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,10 +726,14 @@
   <dimension ref="A1:CL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -719,275 +745,275 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AX3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AY3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BA3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BB3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BD3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BE3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BG3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BK3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BL3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BM3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BN3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BO3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BP3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BR3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BS3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BT3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BU3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BV3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BW3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BX3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BY3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CA3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CB3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CC3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CD3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CE3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CF3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CG3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CH3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CI3" t="s">
+      <c r="CI3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CK3" t="s">
+      <c r="CK3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CL3" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3983,275 +4009,275 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>94</v>
-      </c>
-      <c r="R15" t="s">
-        <v>94</v>
-      </c>
-      <c r="S15" t="s">
-        <v>94</v>
-      </c>
-      <c r="T15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15" t="s">
-        <v>94</v>
-      </c>
-      <c r="V15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W15" t="s">
-        <v>94</v>
-      </c>
-      <c r="X15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>94</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CI15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>94</v>
-      </c>
-      <c r="CL15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CH15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CJ15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CK15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL15" s="1" t="s">
         <v>94</v>
       </c>
     </row>
